--- a/data/trans_dic/P55$pareja-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3922374271957076</v>
+        <v>0.382709398789212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4060732082294557</v>
+        <v>0.3881257026111101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4740809615084885</v>
+        <v>0.455473566918843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4180261888162781</v>
+        <v>0.4103148770774693</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1551888523354458</v>
+        <v>0.1559318219709804</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1923084358161628</v>
+        <v>0.1779984095702641</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2299132829052081</v>
+        <v>0.2366195144757824</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1766519263948049</v>
+        <v>0.1764910608075815</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2726281528185414</v>
+        <v>0.2745057275091276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3080976758919713</v>
+        <v>0.2998673523944502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3362539808932862</v>
+        <v>0.3277120545750321</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2925799695496221</v>
+        <v>0.2966415799004186</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7086409798289591</v>
+        <v>0.6815238535669482</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.707560794919662</v>
+        <v>0.698348804618636</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8116720682034382</v>
+        <v>0.8033116047941243</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6312125818768746</v>
+        <v>0.6267500138555676</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3651586832301689</v>
+        <v>0.3600447721271626</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4113897571297264</v>
+        <v>0.4017800204174281</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.447704848189094</v>
+        <v>0.4494842501715214</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3167576227547413</v>
+        <v>0.3158502378263258</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4489515992117122</v>
+        <v>0.4502055059313144</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.489842696595208</v>
+        <v>0.496978579469089</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5180938862245905</v>
+        <v>0.5241074030277466</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4226923347794851</v>
+        <v>0.4206310808840997</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3620722428579561</v>
+        <v>0.3685719239837636</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2188040534405187</v>
+        <v>0.2314269345506927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2868931780992197</v>
+        <v>0.279465675241578</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2310298705791439</v>
+        <v>0.2195501648137621</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02142347486452243</v>
+        <v>0.02109252954555185</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06800689112224598</v>
+        <v>0.07212024753347895</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05213810348741697</v>
+        <v>0.05493353923452571</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06796571973680597</v>
+        <v>0.06562436824242228</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1444756584685297</v>
+        <v>0.1457359964709615</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1308687312374444</v>
+        <v>0.135706523656156</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1403005627645857</v>
+        <v>0.1461346543719077</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1241660527990669</v>
+        <v>0.1224457425288582</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5695631476074692</v>
+        <v>0.5704217619014943</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.435272542111958</v>
+        <v>0.4388451759902099</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4739725078005883</v>
+        <v>0.4574967279540944</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3708860259473625</v>
+        <v>0.3613934344156828</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09912995766288775</v>
+        <v>0.09394999458288442</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1565730218166447</v>
+        <v>0.156505898393199</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1585126966169943</v>
+        <v>0.1635181148423893</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1171979556538879</v>
+        <v>0.1169323885863053</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2380490527541674</v>
+        <v>0.2458397498261708</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2285610010319127</v>
+        <v>0.2270785417602187</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2418330064445114</v>
+        <v>0.2419764263776233</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1771259579295383</v>
+        <v>0.1765575030371906</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4408665818086169</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.365151380960757</v>
+        <v>0.3651513809607569</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1079269962717578</v>
@@ -957,7 +957,7 @@
         <v>0.1726305386341195</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.123685543040511</v>
+        <v>0.1236855430405111</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.241977515585097</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3990990758796476</v>
+        <v>0.3927919396533059</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3103692095760891</v>
+        <v>0.3089694678916448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3655085366249783</v>
+        <v>0.3668498396276057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3045718989463566</v>
+        <v>0.3122270312119403</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07467356715150032</v>
+        <v>0.07314970349650399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1134229944808263</v>
+        <v>0.1136438930899444</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1211395495811254</v>
+        <v>0.1278998762430598</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09964488477208756</v>
+        <v>0.1000966237408437</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2010695570804684</v>
+        <v>0.1994395537853819</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1978569495999382</v>
+        <v>0.194036284195201</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2129083481841398</v>
+        <v>0.2094274602335464</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1747921471458637</v>
+        <v>0.1762399383945872</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.572002725873816</v>
+        <v>0.5845679426895661</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4840744276628496</v>
+        <v>0.4902804845628937</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5241453321262012</v>
+        <v>0.5351558344725688</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.426903613844181</v>
+        <v>0.4240163811490971</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1565721811640426</v>
+        <v>0.1534534152063914</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2044377099238096</v>
+        <v>0.2009649326809232</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2238356991038389</v>
+        <v>0.2270185971844159</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1511605828903231</v>
+        <v>0.1529192559456574</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2834284296269888</v>
+        <v>0.2890948580625488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2831162736561953</v>
+        <v>0.2809535389459317</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3103278473538845</v>
+        <v>0.3070816339598057</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.228874395752197</v>
+        <v>0.230601547911895</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16390</v>
+        <v>15992</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18458</v>
+        <v>17643</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14857</v>
+        <v>14274</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23017</v>
+        <v>22593</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10500</v>
+        <v>10551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13407</v>
+        <v>12410</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18885</v>
+        <v>19436</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14224</v>
+        <v>14211</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29838</v>
+        <v>30043</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>35485</v>
+        <v>34537</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>38157</v>
+        <v>37188</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>39668</v>
+        <v>40219</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29611</v>
+        <v>28477</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32163</v>
+        <v>31744</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25436</v>
+        <v>25174</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34756</v>
+        <v>34510</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24707</v>
+        <v>24361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28681</v>
+        <v>28011</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>36774</v>
+        <v>36921</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25505</v>
+        <v>25432</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>49136</v>
+        <v>49273</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>56417</v>
+        <v>57239</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>58792</v>
+        <v>59475</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>57309</v>
+        <v>57029</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30702</v>
+        <v>31253</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22036</v>
+        <v>23307</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25855</v>
+        <v>25186</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>26351</v>
+        <v>25042</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3498</v>
+        <v>3444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14269</v>
+        <v>15132</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9657</v>
+        <v>10175</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>18808</v>
+        <v>18160</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35838</v>
+        <v>36151</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40638</v>
+        <v>42140</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>38631</v>
+        <v>40237</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>48522</v>
+        <v>47850</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48296</v>
+        <v>48368</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43837</v>
+        <v>44197</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42715</v>
+        <v>41230</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>42303</v>
+        <v>41220</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16184</v>
+        <v>15338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>32851</v>
+        <v>32837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29360</v>
+        <v>30287</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>32431</v>
+        <v>32358</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>59049</v>
+        <v>60982</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70974</v>
+        <v>70514</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>66587</v>
+        <v>66627</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69218</v>
+        <v>68995</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>50517</v>
+        <v>49719</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45366</v>
+        <v>45161</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>44394</v>
+        <v>44557</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51510</v>
+        <v>52804</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17244</v>
+        <v>16892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31705</v>
+        <v>31767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>32388</v>
+        <v>34196</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35597</v>
+        <v>35759</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>71883</v>
+        <v>71300</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>84227</v>
+        <v>82601</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>82783</v>
+        <v>81430</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>92004</v>
+        <v>92766</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>72403</v>
+        <v>73993</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70756</v>
+        <v>71663</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63662</v>
+        <v>64999</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>72198</v>
+        <v>71710</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36156</v>
+        <v>35436</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>57146</v>
+        <v>56176</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59845</v>
+        <v>60696</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>54001</v>
+        <v>54629</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>101326</v>
+        <v>103352</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>120522</v>
+        <v>119601</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>120662</v>
+        <v>119400</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>120471</v>
+        <v>121380</v>
       </c>
     </row>
     <row r="16">
